--- a/artefatos/Burndown Sprint 1.xlsx
+++ b/artefatos/Burndown Sprint 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thale\Desktop\API\sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thale\Desktop\API\API_1SEM\artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09357A73-5273-4CA2-AF39-892E0BE20578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB8B034-D07B-4A03-B334-17E6FD2F197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,17 +280,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +670,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44456</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="3"/>
@@ -1612,30 +1612,30 @@
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1651,15 +1651,15 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="9">
         <v>44438</v>
       </c>
@@ -1679,15 +1679,15 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="9">
         <v>44441</v>
       </c>
@@ -1707,15 +1707,15 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="19">
         <v>44445</v>
       </c>
@@ -1731,15 +1731,15 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="9">
         <v>44453</v>
       </c>
@@ -1755,15 +1755,15 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="9">
         <v>44450</v>
       </c>
@@ -1779,15 +1779,15 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="16">
         <v>44452</v>
       </c>
@@ -1798,18 +1798,18 @@
         <v>8</v>
       </c>
       <c r="K34" s="16">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="16"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1817,13 +1817,13 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="16"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -1831,27 +1831,27 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1859,13 +1859,13 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1873,13 +1873,13 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1887,13 +1887,13 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1901,13 +1901,13 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1915,13 +1915,13 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1929,13 +1929,13 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1943,13 +1943,13 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -1957,13 +1957,13 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1971,13 +1971,13 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="7"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -1985,13 +1985,13 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -1999,13 +1999,13 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="7"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2013,13 +2013,13 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2027,13 +2027,13 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2041,13 +2041,13 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2055,13 +2055,13 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2069,13 +2069,13 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2083,13 +2083,13 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="7"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2097,13 +2097,13 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="7"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2111,13 +2111,13 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="7"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2125,13 +2125,13 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="7"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2139,13 +2139,13 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
       <c r="H59" s="7"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2153,13 +2153,13 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2167,13 +2167,13 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="7"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2181,13 +2181,13 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -2195,13 +2195,13 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2209,13 +2209,13 @@
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="7"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2223,13 +2223,13 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="7"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2237,13 +2237,13 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -2251,13 +2251,13 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -15426,36 +15426,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
@@ -15467,6 +15437,36 @@
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="I29:I1007 J29:J30 J32:J1007">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -15486,6 +15486,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001B6A24C307C6164BB0F6055DF1624B6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0db081465d12e3f126b3305fd57011d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d2d35cd79d80d3b38601b74d693a05d">
     <xsd:element name="properties">
@@ -15599,15 +15608,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FC91F1-A823-4F9F-90A6-265093AD8A7F}">
   <ds:schemaRefs>
@@ -15618,6 +15618,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6147A5AC-6F27-4745-B125-DA6404AFC3E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1E4B4D-5AAE-43D6-8247-01498DC21AE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15631,12 +15639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6147A5AC-6F27-4745-B125-DA6404AFC3E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>